--- a/backend/auto_course/init_data/relation.xlsx
+++ b/backend/auto_course/init_data/relation.xlsx
@@ -32,14 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周一第1, 2节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周一第3, 4, 5节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2110100000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -53,6 +45,14 @@
   </si>
   <si>
     <t>1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一第1,2节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一第3,4,5节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,7 +436,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -461,30 +461,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
